--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R0952a4d3f2fc44b8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="R2a50b25785a14eb7"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="Rc62321f085ba4062"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R6f1e318f6fb74867"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="Re626a1ee5ec24bf4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R747de6d366824bfe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="R1e069745d7b340d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R918f2b9a026d4506"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R54adfec087ac45ae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="R95174b5fbdd444f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R747de6d366824bfe"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="R1e069745d7b340d1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R918f2b9a026d4506"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R54adfec087ac45ae"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="R95174b5fbdd444f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R6d681bc303f44953"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="Rd4cdc9a5823b4ea9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R256a4a5550a44bda"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R05d76776d04841f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="Rb4953dd7c5614e35"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -34,24 +34,24 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="5">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R6d681bc303f44953"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="Rd4cdc9a5823b4ea9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R256a4a5550a44bda"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R05d76776d04841f8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="Rb4953dd7c5614e35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R7c8e8314086346b2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="R8dab2b43201a47ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R81df7636adc347db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R3c7c325f74b442f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="R6badcf926f374143"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -34,24 +34,24 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:i/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="5">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/112_AutoFitColumnsBaseline.xlsx
@@ -5,11 +5,11 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="R7c8e8314086346b2"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="R8dab2b43201a47ac"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R81df7636adc347db"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R3c7c325f74b442f6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="R6badcf926f374143"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="No Baseline" sheetId="1" r:id="Rd26342401f8d4be1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +5" sheetId="2" r:id="R765c7d95e06143b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline +10" sheetId="3" r:id="R86453f8c17d945f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Baseline -3" sheetId="4" r:id="R0e96bb4877d545e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibration 1.2 Baseline +8" sheetId="5" r:id="Rc8f33af4d4dc4514"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
